--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilip\Desktop\Git_Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6976E4-0734-4171-B6AC-E65F20FA633D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A64D88-8A2C-4B61-A591-1E1D8A9DD103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ythgh</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>dilip</t>
+  </si>
+  <si>
+    <t>arun</t>
   </si>
 </sst>
 </file>
@@ -351,14 +354,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:J6"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
